--- a/Mechatronics/Hardware/Electrical/BEncoder2Board/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BEncoder2Board/EncoderBoard2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\Mechatronics\Hardware\Electrical\BEncoder2Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2ED8B-278B-4476-BC16-1DDCD6E2219F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC470F2A-C4DF-4F32-9284-477DD956BB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EncoderBoard2" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>Item</t>
   </si>
@@ -164,12 +164,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>DMosfet</t>
-  </si>
-  <si>
-    <t>Q_PMOS_GSD</t>
-  </si>
-  <si>
     <t>Encoder:SOT-23</t>
   </si>
   <si>
@@ -276,6 +270,18 @@
   </si>
   <si>
     <t>U2, U3</t>
+  </si>
+  <si>
+    <t>Dmosfet (FS8205)</t>
+  </si>
+  <si>
+    <t>TLE5009</t>
+  </si>
+  <si>
+    <t>SSD1306</t>
+  </si>
+  <si>
+    <t>Q_PMOS_GSD ( DMP1045U-7)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +619,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,6 +810,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -1211,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -1228,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -1245,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1279,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -1313,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>15</v>
@@ -1329,14 +1350,14 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1346,14 +1367,14 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1363,14 +1384,14 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1381,13 +1402,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1398,13 +1419,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1415,13 +1436,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1429,16 +1450,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3">
+        <v>560</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1446,16 +1467,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1463,16 +1484,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1482,31 +1503,31 @@
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
+      <c r="C19" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,16 +1535,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3">
-        <v>560</v>
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1531,16 +1552,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1548,16 +1569,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1567,31 +1588,31 @@
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>50</v>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="3">
-        <v>100</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1599,16 +1620,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1616,10 +1637,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>56</v>
@@ -1633,16 +1654,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1652,14 +1673,14 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1669,8 +1690,8 @@
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>63</v>
+      <c r="C30" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D30" s="3">
         <v>82402305</v>
@@ -1686,14 +1707,14 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1704,13 +1725,36 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
